--- a/TP2/Resultados/Canal1-2daParte.xlsx
+++ b/TP2/Resultados/Canal1-2daParte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Ramiro\Documents\Facultad\3ro\2do Cuatri\Teoria de la Informacion\Repositorio\TP2\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6C620F-1ECC-4BFB-9DBD-1F35517195B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02890D-51D9-4D76-BEE3-8EF997301690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11385" yWindow="360" windowWidth="16380" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Canal 1</t>
   </si>
@@ -91,28 +91,55 @@
     <t>Matriz P(a/b)</t>
   </si>
   <si>
-    <t>H(A,b1)</t>
-  </si>
-  <si>
     <t>H(A,b2)</t>
   </si>
   <si>
     <t>H(A,b3)</t>
   </si>
   <si>
-    <t>H(A/B)</t>
-  </si>
-  <si>
-    <t>H(A)</t>
-  </si>
-  <si>
-    <t>I(A,B)</t>
-  </si>
-  <si>
     <t>INFORMACION MUTUA</t>
   </si>
   <si>
     <t>EQUIVOCACION</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>H(B)</t>
+  </si>
+  <si>
+    <t>H(S,b1)</t>
+  </si>
+  <si>
+    <t>H(S/B)</t>
+  </si>
+  <si>
+    <t>H(S)</t>
+  </si>
+  <si>
+    <t>I(S,B)</t>
+  </si>
+  <si>
+    <t>H(B/S)</t>
+  </si>
+  <si>
+    <t>I(B,S)</t>
+  </si>
+  <si>
+    <t>H(B,s1)</t>
+  </si>
+  <si>
+    <t>H(B,s2)</t>
+  </si>
+  <si>
+    <t>H(B,s3)</t>
+  </si>
+  <si>
+    <t>H(B,s4)</t>
+  </si>
+  <si>
+    <t>H(B,s5)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,7 +223,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,14 +237,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,6 +256,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8D6B497-8C53-4543-8236-6481B50EB23E}" name="Tabla6" displayName="Tabla6" ref="A22:F25" totalsRowShown="0">
+  <autoFilter ref="A22:F25" xr:uid="{F8D6B497-8C53-4543-8236-6481B50EB23E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BA3865C7-A7CB-4335-993E-5B7F50593260}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{305F6B41-CE40-423C-B168-7B1A1EC41C74}" name="S1"/>
+    <tableColumn id="3" xr3:uid="{0B7527F1-E6EE-4348-9F15-91556D7502E8}" name="S2"/>
+    <tableColumn id="4" xr3:uid="{1DA3FCBB-BC65-4D57-BB21-A303D42F41BB}" name="S3"/>
+    <tableColumn id="5" xr3:uid="{DC038A7E-7F24-4227-ABA3-535191B9E44D}" name="S4"/>
+    <tableColumn id="6" xr3:uid="{86328D2C-E51B-446F-BF1C-F0451239988A}" name="S5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,23 +536,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -518,12 +563,12 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -665,21 +710,21 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -688,7 +733,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -698,7 +743,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -707,16 +752,35 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <f>E5*LOG(1/E5,2)+F5*LOG(1/F5,2)+G5*LOG(1/G5,2)</f>
+        <v>1.5709505944546687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L24" si="1">E6*LOG(1/E6,2)+F6*LOG(1/F6,2)+G6*LOG(1/G6,2)</f>
+        <v>1.4041074513870861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
@@ -732,8 +796,15 @@
       <c r="F22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>1.5709505944546687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -758,14 +829,21 @@
         <v>5.6818181818181802E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I23">
         <f>B23*LOG(1/B23,2) +C23*LOG(1/C23,2) + D23*LOG(1/D23,2) + E23*LOG(1/E23,2)+F23*LOG(1/F23,2)</f>
         <v>2.0804392892644823</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1.5709505944546687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -790,14 +868,21 @@
         <v>1.7857142857142853E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24">
         <f>B24*LOG(1/B24,2) +C24*LOG(1/C24,2) + D24*LOG(1/D24,2) + E24*LOG(1/E24,2)+ F24*LOG(1/F24,2)</f>
         <v>2.0699071371270636</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>1.3439645338316386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -822,47 +907,73 @@
         <v>7.2499999999999981E-2</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <f>B25*LOG(1/B25,2) +C25*LOG(1/C25,2) + D25*LOG(1/D25,2) + E25*LOG(1/E25,2)+F25*LOG(1/F25,2)</f>
         <v>2.2069052653268924</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="9" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="I27" s="6">
         <f>B17*I23+B18*I24+B19*I25</f>
         <v>2.1274868765712736</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27">
+        <f>B4*L20+B5*L21+B6*L22+B7*L23+B8*L24</f>
+        <v>1.5262326628100005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="5">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)+B7*LOG(1/B7,2)+B8*LOG(1/B8,2)</f>
         <v>2.1659573209491749</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="11" t="s">
+      <c r="K29" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="11">
+      <c r="L29">
+        <f>B17*LOG(1/B17,2)+B18*LOG(1/B18,2)+B19*LOG(1/B19,2)</f>
+        <v>1.5647031071879018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="6">
         <f>I29-I27</f>
         <v>3.8470444377901369E-2</v>
       </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <f>L29-L27</f>
+        <v>3.8470444377901369E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -875,5 +986,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>